--- a/simulation_data/iterative_algorithm/i_error_level_1_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_1_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.85621400088444</v>
+        <v>90.28216988255359</v>
       </c>
       <c r="D2" t="n">
-        <v>1.278027746565991</v>
+        <v>1.134533175131313</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.14464191149064</v>
+        <v>88.78586285260475</v>
       </c>
       <c r="D3" t="n">
-        <v>1.219718180795432</v>
+        <v>1.105117887404967</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.96509069135453</v>
+        <v>87.9740939838544</v>
       </c>
       <c r="D4" t="n">
-        <v>1.337568761097818</v>
+        <v>1.217367746553743</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.01670109866838</v>
+        <v>86.97467190974298</v>
       </c>
       <c r="D5" t="n">
-        <v>1.418737099408518</v>
+        <v>1.205368099754217</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.65777111697673</v>
+        <v>86.02027374663236</v>
       </c>
       <c r="D6" t="n">
-        <v>1.344324026410182</v>
+        <v>1.225418589524959</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.0983425100619</v>
+        <v>84.98839915589778</v>
       </c>
       <c r="D7" t="n">
-        <v>1.309085292428303</v>
+        <v>1.298874983364509</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.09723295790756</v>
+        <v>83.99186811329814</v>
       </c>
       <c r="D8" t="n">
-        <v>1.191602615397291</v>
+        <v>1.091728736572849</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.01458254765801</v>
+        <v>82.7982837734002</v>
       </c>
       <c r="D9" t="n">
-        <v>1.361534780742609</v>
+        <v>1.261744045416817</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.83908183990276</v>
+        <v>82.34593153823387</v>
       </c>
       <c r="D10" t="n">
-        <v>1.213521752150607</v>
+        <v>1.258016214443001</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.95265149858159</v>
+        <v>81.04392607426307</v>
       </c>
       <c r="D11" t="n">
-        <v>1.376110270754955</v>
+        <v>1.143313194850937</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.97604582731913</v>
+        <v>80.18265955510464</v>
       </c>
       <c r="D12" t="n">
-        <v>1.297133600645552</v>
+        <v>1.199028702413353</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.9119660240972</v>
+        <v>79.12813922256537</v>
       </c>
       <c r="D13" t="n">
-        <v>1.163499615926847</v>
+        <v>1.183894145481236</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.75404859129701</v>
+        <v>78.1602099296267</v>
       </c>
       <c r="D14" t="n">
-        <v>1.265545139544779</v>
+        <v>1.28355497386035</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.17221418435356</v>
+        <v>77.10109637675407</v>
       </c>
       <c r="D15" t="n">
-        <v>1.385005319935847</v>
+        <v>1.280541093262283</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.69969100374614</v>
+        <v>75.98403191744364</v>
       </c>
       <c r="D16" t="n">
-        <v>1.236544204384544</v>
+        <v>1.062759868616923</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.92289462701386</v>
+        <v>74.95333239533441</v>
       </c>
       <c r="D17" t="n">
-        <v>1.31470866765802</v>
+        <v>1.073439699727325</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.01151691195525</v>
+        <v>74.18856643329448</v>
       </c>
       <c r="D18" t="n">
-        <v>1.305416777170445</v>
+        <v>1.152552815054025</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.0148262684324</v>
+        <v>73.07528301849021</v>
       </c>
       <c r="D19" t="n">
-        <v>1.375955735597195</v>
+        <v>1.010307794968113</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.11383175829403</v>
+        <v>71.90035213798134</v>
       </c>
       <c r="D20" t="n">
-        <v>1.251115257075739</v>
+        <v>1.210544036475041</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.98839493090274</v>
+        <v>70.9208316447049</v>
       </c>
       <c r="D21" t="n">
-        <v>1.172630436659426</v>
+        <v>1.271524680176432</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.93823710693368</v>
+        <v>70.01071348535173</v>
       </c>
       <c r="D22" t="n">
-        <v>1.222516087729024</v>
+        <v>1.017266995992354</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.2816755068372</v>
+        <v>69.19556409820494</v>
       </c>
       <c r="D23" t="n">
-        <v>1.286120409539561</v>
+        <v>1.219629492976504</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.10698949566117</v>
+        <v>67.98667913190225</v>
       </c>
       <c r="D24" t="n">
-        <v>1.295651454233526</v>
+        <v>1.296348421153044</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.06746265465753</v>
+        <v>67.01699111955891</v>
       </c>
       <c r="D25" t="n">
-        <v>1.41434064918142</v>
+        <v>1.216101662926569</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.96197206927596</v>
+        <v>65.91652879083618</v>
       </c>
       <c r="D26" t="n">
-        <v>1.337184792146161</v>
+        <v>1.144038829483281</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.04399838187787</v>
+        <v>64.88383169953055</v>
       </c>
       <c r="D27" t="n">
-        <v>1.23086961262837</v>
+        <v>1.345775191242298</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.09574328937691</v>
+        <v>63.88667244600941</v>
       </c>
       <c r="D28" t="n">
-        <v>1.47310216265721</v>
+        <v>1.171727915133204</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.02641723054308</v>
+        <v>63.02205195645921</v>
       </c>
       <c r="D29" t="n">
-        <v>1.340006884494856</v>
+        <v>1.516146517610969</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.79652932057743</v>
+        <v>62.12376447555724</v>
       </c>
       <c r="D30" t="n">
-        <v>1.235235411957912</v>
+        <v>1.193158980118415</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.93329895213957</v>
+        <v>61.04170047295696</v>
       </c>
       <c r="D31" t="n">
-        <v>1.382109191638492</v>
+        <v>1.088621189956225</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.01493565840483</v>
+        <v>60.14208598094042</v>
       </c>
       <c r="D32" t="n">
-        <v>1.350264761347151</v>
+        <v>1.140202832040299</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.08174450812868</v>
+        <v>59.08226593088648</v>
       </c>
       <c r="D33" t="n">
-        <v>1.178982435810491</v>
+        <v>1.210496532606094</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.10499860718154</v>
+        <v>57.85905468283578</v>
       </c>
       <c r="D34" t="n">
-        <v>1.323533226062789</v>
+        <v>1.238269524182572</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.0438376245738</v>
+        <v>57.05850906140133</v>
       </c>
       <c r="D35" t="n">
-        <v>1.331187910479318</v>
+        <v>1.31199933143577</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.03558622494637</v>
+        <v>56.15633033752206</v>
       </c>
       <c r="D36" t="n">
-        <v>1.305525331479368</v>
+        <v>1.338176193509724</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.76989828450139</v>
+        <v>54.97972764118531</v>
       </c>
       <c r="D37" t="n">
-        <v>1.23632320541503</v>
+        <v>1.407888706422799</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.07632906442079</v>
+        <v>54.04942734885933</v>
       </c>
       <c r="D38" t="n">
-        <v>1.449513674294818</v>
+        <v>1.365711919368053</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.8637769408018</v>
+        <v>53.03358756569348</v>
       </c>
       <c r="D39" t="n">
-        <v>1.275401273564843</v>
+        <v>1.226379774145066</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.90867336880932</v>
+        <v>51.88672298102687</v>
       </c>
       <c r="D40" t="n">
-        <v>1.343806823249618</v>
+        <v>1.255357702469424</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.08152946706335</v>
+        <v>51.00757157305666</v>
       </c>
       <c r="D41" t="n">
-        <v>1.242507686988094</v>
+        <v>1.310606076010645</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.90673421077803</v>
+        <v>50.04547941818068</v>
       </c>
       <c r="D42" t="n">
-        <v>1.293435095226956</v>
+        <v>1.33861667789127</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.90604640061035</v>
+        <v>48.87353879567532</v>
       </c>
       <c r="D43" t="n">
-        <v>1.315848012350639</v>
+        <v>1.08318161381466</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.95211231675327</v>
+        <v>47.77378304654719</v>
       </c>
       <c r="D44" t="n">
-        <v>1.245503520006381</v>
+        <v>1.299013968146276</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.00402983630585</v>
+        <v>46.98869044299411</v>
       </c>
       <c r="D45" t="n">
-        <v>1.276604927809182</v>
+        <v>1.164652971556161</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.09320997800016</v>
+        <v>46.02272888434189</v>
       </c>
       <c r="D46" t="n">
-        <v>1.299236004730142</v>
+        <v>1.163161343652889</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.87916966584619</v>
+        <v>44.90428472092309</v>
       </c>
       <c r="D47" t="n">
-        <v>1.377635475287796</v>
+        <v>1.332195493204216</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.22063311683056</v>
+        <v>44.1387077952429</v>
       </c>
       <c r="D48" t="n">
-        <v>1.381665508966554</v>
+        <v>1.19163543360204</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.13616393804582</v>
+        <v>42.99159382050482</v>
       </c>
       <c r="D49" t="n">
-        <v>1.123260048914553</v>
+        <v>1.310001298572758</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.89236518247071</v>
+        <v>41.8242474917946</v>
       </c>
       <c r="D50" t="n">
-        <v>1.356572651796199</v>
+        <v>1.248513491091019</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.977644867302</v>
+        <v>41.18275503219632</v>
       </c>
       <c r="D51" t="n">
-        <v>1.316622610672542</v>
+        <v>1.255903663171674</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.93853400770784</v>
+        <v>39.95693250557196</v>
       </c>
       <c r="D52" t="n">
-        <v>1.256610852606406</v>
+        <v>1.298583897408105</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.87341085981141</v>
+        <v>38.88004163194724</v>
       </c>
       <c r="D53" t="n">
-        <v>1.293081320588138</v>
+        <v>1.173307569627611</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.04852607403429</v>
+        <v>38.00828897913278</v>
       </c>
       <c r="D54" t="n">
-        <v>1.282037651249696</v>
+        <v>1.254827662077521</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.71095839419198</v>
+        <v>36.96142951791335</v>
       </c>
       <c r="D55" t="n">
-        <v>1.408603451431852</v>
+        <v>1.260859580570134</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.78185603662713</v>
+        <v>35.95331074698738</v>
       </c>
       <c r="D56" t="n">
-        <v>1.214644634317047</v>
+        <v>1.223455169579801</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.97938727237104</v>
+        <v>34.86861532385734</v>
       </c>
       <c r="D57" t="n">
-        <v>1.468960155373983</v>
+        <v>1.324916016152136</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.88992211929629</v>
+        <v>34.14328546836213</v>
       </c>
       <c r="D58" t="n">
-        <v>1.413922356327768</v>
+        <v>1.364151803068437</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.83462382924883</v>
+        <v>32.91890262595439</v>
       </c>
       <c r="D59" t="n">
-        <v>1.176249472973446</v>
+        <v>1.297365206961385</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.05579566285179</v>
+        <v>31.9823325621796</v>
       </c>
       <c r="D60" t="n">
-        <v>1.206965963692102</v>
+        <v>1.307171995691485</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.09514702631378</v>
+        <v>30.91939701339345</v>
       </c>
       <c r="D61" t="n">
-        <v>1.437131942019594</v>
+        <v>1.253600390001794</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.77717368671443</v>
+        <v>29.89547589284438</v>
       </c>
       <c r="D62" t="n">
-        <v>1.300107923881945</v>
+        <v>1.350367628053584</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.95288795907366</v>
+        <v>29.14963901873449</v>
       </c>
       <c r="D63" t="n">
-        <v>1.288694161447172</v>
+        <v>1.308830583961958</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.91133091881171</v>
+        <v>28.04476867588376</v>
       </c>
       <c r="D64" t="n">
-        <v>1.288808617740331</v>
+        <v>1.47409212254468</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.8914602004169</v>
+        <v>27.01149875963118</v>
       </c>
       <c r="D65" t="n">
-        <v>1.349217372025348</v>
+        <v>1.257150684600158</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.07423644306123</v>
+        <v>25.98275421286691</v>
       </c>
       <c r="D66" t="n">
-        <v>1.402455813180482</v>
+        <v>1.159455477939183</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.83937940278635</v>
+        <v>25.20282563826773</v>
       </c>
       <c r="D67" t="n">
-        <v>1.33759537004125</v>
+        <v>1.285273509508904</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.92114715705085</v>
+        <v>24.0043242483656</v>
       </c>
       <c r="D68" t="n">
-        <v>1.274829063236544</v>
+        <v>1.246697765097278</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.01246285800273</v>
+        <v>22.86472588120684</v>
       </c>
       <c r="D69" t="n">
-        <v>1.361893264513867</v>
+        <v>1.268183630755201</v>
       </c>
     </row>
   </sheetData>
